--- a/N5-S1-S3/nhom-dong-tu.xlsx
+++ b/N5-S1-S3/nhom-dong-tu.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13440"/>
+    <workbookView windowWidth="19935" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="S3" sheetId="2" r:id="rId2"/>
+    <sheet name="katakana" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="174">
   <si>
     <t>STT</t>
   </si>
@@ -171,10 +171,922 @@
     <t>nghe điện thoại</t>
   </si>
   <si>
-    <t>べんきょうします</t>
+    <t>べんきょえします</t>
   </si>
   <si>
     <t>học</t>
+  </si>
+  <si>
+    <t>を</t>
+  </si>
+  <si>
+    <t>が</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> đi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>ちがいます</t>
+  </si>
+  <si>
+    <t>sai/khác</t>
+  </si>
+  <si>
+    <t>えらびます</t>
+  </si>
+  <si>
+    <r>
+      <t>ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>もちます</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m, n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <t>住みます</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <t>ひきます</t>
+  </si>
+  <si>
+    <r>
+      <t>ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>つくります</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ăn, làm</t>
+    </r>
+  </si>
+  <si>
+    <t>ならう</t>
+  </si>
+  <si>
+    <t>ならいます</t>
+  </si>
+  <si>
+    <t>倣います</t>
+  </si>
+  <si>
+    <t>làm theo</t>
+  </si>
+  <si>
+    <t>ふる</t>
+  </si>
+  <si>
+    <t>ふります</t>
+  </si>
+  <si>
+    <t>降ります</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i (m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+  </si>
+  <si>
+    <t>きこえる</t>
+  </si>
+  <si>
+    <t>きこえります</t>
+  </si>
+  <si>
+    <t>聞こえります</t>
+  </si>
+  <si>
+    <r>
+      <t>nghe th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <t>みえる</t>
+  </si>
+  <si>
+    <t>みえります</t>
+  </si>
+  <si>
+    <t>見えります</t>
+  </si>
+  <si>
+    <r>
+      <t>nhìn th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <t>かけなおす</t>
+  </si>
+  <si>
+    <t>かけなおします</t>
+  </si>
+  <si>
+    <t>かけ直します</t>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>よぶ</t>
+  </si>
+  <si>
+    <t>よびます</t>
+  </si>
+  <si>
+    <t>呼びます</t>
+  </si>
+  <si>
+    <t>kêu</t>
+  </si>
+  <si>
+    <t>おごる</t>
+  </si>
+  <si>
+    <t>おごります</t>
+  </si>
+  <si>
+    <t>奢ります</t>
+  </si>
+  <si>
+    <t>bao ăn</t>
+  </si>
+  <si>
+    <t>はらう</t>
+  </si>
+  <si>
+    <t>はらいます</t>
+  </si>
+  <si>
+    <t>祓う</t>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xua đu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i, đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> làm s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ch, thanh l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>こたえる</t>
+  </si>
+  <si>
+    <t>こたえます</t>
+  </si>
+  <si>
+    <t>答えます</t>
+  </si>
+  <si>
+    <r>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>つとめて</t>
+  </si>
+  <si>
+    <t>つとめます</t>
+  </si>
+  <si>
+    <t>勤めます</t>
+  </si>
+  <si>
+    <r>
+      <t>làm vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>できる</t>
+  </si>
+  <si>
+    <t>できます</t>
+  </si>
+  <si>
+    <r>
+      <t>có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+  </si>
+  <si>
+    <t>まちがえる</t>
+  </si>
+  <si>
+    <t>まちがえます</t>
+  </si>
+  <si>
+    <r>
+      <t>nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>きめり</t>
+  </si>
+  <si>
+    <t>きめます</t>
+  </si>
+  <si>
+    <r>
+      <t>quy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nh</t>
+    </r>
+  </si>
+  <si>
+    <t>KATAKANA</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>ケーキ</t>
+  </si>
+  <si>
+    <t>bánh ngọt</t>
+  </si>
+  <si>
+    <t>đồ ăn</t>
+  </si>
+  <si>
+    <t>ビール</t>
+  </si>
+  <si>
+    <t>bia</t>
+  </si>
+  <si>
+    <t>バナナ</t>
+  </si>
+  <si>
+    <t>chuối</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>ミルク</t>
+  </si>
+  <si>
+    <t>sữa</t>
+  </si>
+  <si>
+    <t>ジュース</t>
+  </si>
+  <si>
+    <t>nước trái cây</t>
+  </si>
+  <si>
+    <t>バン</t>
+  </si>
+  <si>
+    <t>bánh mì</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>tivi</t>
+  </si>
+  <si>
+    <t>thiết bị điện tử</t>
+  </si>
+  <si>
+    <t>ラジオ</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>スーパー</t>
+  </si>
+  <si>
+    <t>siêu thị</t>
+  </si>
+  <si>
+    <t>nơi chốn</t>
+  </si>
+  <si>
+    <t>デパート</t>
+  </si>
+  <si>
+    <t>Trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>ホテル</t>
+  </si>
+  <si>
+    <t>khách sạn</t>
+  </si>
+  <si>
+    <t>カラオケ</t>
+  </si>
+  <si>
+    <t>karaoke</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>bài kiểm tra</t>
+  </si>
+  <si>
+    <t>バイク</t>
+  </si>
+  <si>
+    <t>xe máy</t>
+  </si>
+  <si>
+    <t>ブンタウ</t>
+  </si>
+  <si>
+    <t>vũng tàu</t>
+  </si>
+  <si>
+    <t>địa danh</t>
+  </si>
+  <si>
+    <t>ダラット</t>
+  </si>
+  <si>
+    <t>đà lạt</t>
+  </si>
+  <si>
+    <t>ダナン</t>
+  </si>
+  <si>
+    <t>đà nẵng</t>
+  </si>
+  <si>
+    <t>ニャチャン</t>
+  </si>
+  <si>
+    <t>nha trang</t>
+  </si>
+  <si>
+    <t>ハノイ</t>
+  </si>
+  <si>
+    <t>hà nội</t>
+  </si>
+  <si>
+    <t>ホイアン</t>
+  </si>
+  <si>
+    <t>hội an</t>
+  </si>
+  <si>
+    <t>フエ</t>
+  </si>
+  <si>
+    <t>huế</t>
+  </si>
+  <si>
+    <t>ホーチミン</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>スボーツ</t>
+  </si>
+  <si>
+    <t>thể thao</t>
+  </si>
+  <si>
+    <t>サッカー</t>
+  </si>
+  <si>
+    <t>bóng đá</t>
   </si>
 </sst>
 </file>
@@ -182,12 +1094,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,19 +1110,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Meiryo"/>
+      <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Meiryo"/>
+      <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +1177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,39 +1198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,9 +1222,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,16 +1268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,23 +1294,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -369,7 +1313,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,61 +1463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,114 +1493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -575,6 +1519,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -615,6 +1572,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -639,11 +1611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +1635,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,206 +1661,258 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,325 +2263,325 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.247619047619" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.8761904761905" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6" style="11" customWidth="1"/>
+    <col min="2" max="2" width="55.247619047619" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.8761904761905" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="6">
+      <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="6">
+      <c r="A20" s="26">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="6">
+      <c r="A21" s="26">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="6">
+      <c r="A22" s="26">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="6">
+      <c r="A23" s="26">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="6">
+      <c r="A24" s="26">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="6">
+      <c r="A25" s="26">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="6">
+      <c r="A27" s="26">
         <v>21</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="6">
+      <c r="A28" s="26">
         <v>22</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="6">
+      <c r="A29" s="26">
         <v>23</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="6">
+      <c r="A30" s="26">
         <v>24</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1574,15 +2600,535 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="6" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.62857142857143" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.1238095238095" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.1238095238095" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.3714285714286" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.5047619047619" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" ht="28" customHeight="1" spans="1:7">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="18">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="18">
+        <v>18</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="18">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="18">
+        <v>20</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="18">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="18">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="18">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="18">
+        <v>22</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="18">
+        <v>23</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="18">
+        <v>24</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A26:G26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1590,15 +3136,776 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5047619047619" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.1238095238095" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:4">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:4">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:4">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:4">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:4">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:4">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:4">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:4">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>